--- a/config_1.19/fish_3d_yutu_random_4.xlsx
+++ b/config_1.19/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -340,7 +340,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,15 +404,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,14 +513,14 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1375,8 +1374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1584,195 +1583,195 @@
         <v>2555555555</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21">
+    <row r="9" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>65</v>
       </c>
-      <c r="D9" s="21">
-        <v>2</v>
-      </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22">
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>1</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21">
         <v>1606176000</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="21">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21">
+    <row r="10" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>66</v>
       </c>
-      <c r="D10" s="21">
-        <v>2</v>
-      </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22">
+      <c r="D10" s="20">
+        <v>2</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1</v>
+      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21">
         <v>1606176000</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H10" s="21">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21">
+    <row r="11" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>67</v>
       </c>
-      <c r="D11" s="21">
-        <v>2</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22">
+      <c r="D11" s="20">
+        <v>2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>1</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21">
         <v>1606176000</v>
       </c>
-      <c r="H11" s="22">
+      <c r="H11" s="21">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21">
+    <row r="12" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="20">
         <v>68</v>
       </c>
-      <c r="D12" s="21">
-        <v>2</v>
-      </c>
-      <c r="E12" s="21">
+      <c r="D12" s="20">
+        <v>2</v>
+      </c>
+      <c r="E12" s="20">
         <v>5</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22">
+      <c r="F12" s="21"/>
+      <c r="G12" s="21">
         <v>1606176000</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H12" s="21">
         <v>1606751999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21">
+    <row r="13" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>70</v>
       </c>
-      <c r="D13" s="22">
-        <v>2</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23">
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22">
         <v>1607385600</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21">
+    <row r="14" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <v>71</v>
       </c>
-      <c r="D14" s="22">
-        <v>2</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23">
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22">
         <v>1607385600</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21">
+    <row r="15" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <v>72</v>
       </c>
-      <c r="D15" s="22">
-        <v>2</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23">
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22">
         <v>1607385600</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <v>1607961599</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21">
+    <row r="16" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <v>73</v>
       </c>
-      <c r="D16" s="22">
-        <v>2</v>
-      </c>
-      <c r="E16" s="22">
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
         <v>5</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23">
+      <c r="F16" s="21"/>
+      <c r="G16" s="22">
         <v>1607385600</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <v>1607961599</v>
       </c>
     </row>
@@ -1793,11 +1792,11 @@
         <v>1</v>
       </c>
       <c r="F17" s="19"/>
-      <c r="G17" s="20">
-        <v>1610409600</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1610985599</v>
+      <c r="G17" s="23">
+        <v>1611014400</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1611590399</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -1817,11 +1816,11 @@
         <v>1</v>
       </c>
       <c r="F18" s="19"/>
-      <c r="G18" s="20">
-        <v>1610409600</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1610985599</v>
+      <c r="G18" s="23">
+        <v>1611014400</v>
+      </c>
+      <c r="H18" s="23">
+        <v>1611590399</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1841,11 +1840,11 @@
         <v>1</v>
       </c>
       <c r="F19" s="19"/>
-      <c r="G19" s="20">
-        <v>1610409600</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1610985599</v>
+      <c r="G19" s="23">
+        <v>1611014400</v>
+      </c>
+      <c r="H19" s="23">
+        <v>1611590399</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1865,11 +1864,11 @@
         <v>5</v>
       </c>
       <c r="F20" s="19"/>
-      <c r="G20" s="20">
-        <v>1610409600</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1610985599</v>
+      <c r="G20" s="23">
+        <v>1611014400</v>
+      </c>
+      <c r="H20" s="23">
+        <v>1611590399</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2066,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
